--- a/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2016.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2016.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>217.3748450178</v>
+        <v>2173748.450178</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3940.9751787293</v>
+        <v>39409751.787293</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>43.2203773625</v>
+        <v>432203.773625</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>150.6615358565</v>
+        <v>1506615.358565</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>758.1650208349</v>
+        <v>7581650.208349</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>33.9922261817</v>
+        <v>339922.261817</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>20.4436762522</v>
+        <v>204436.762522</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>3.4431122648</v>
+        <v>34431.122648</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>58.9959276982</v>
+        <v>589959.276982</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>58.7074560121</v>
+        <v>587074.560121</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>125.809111622</v>
+        <v>1258091.11622</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>903.8371074167</v>
+        <v>9038371.074167</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>105.628672487</v>
+        <v>1056286.72487</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>116.4197794115</v>
+        <v>1164197.794115</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>635.642481105</v>
+        <v>6356424.81105</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>79.0077354194</v>
+        <v>790077.354194</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>323.2179582437</v>
+        <v>3232179.582437</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>12.04920385</v>
+        <v>120492.0385</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>4.0525731291</v>
+        <v>40525.731291</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>56.9189633453</v>
+        <v>569189.633453</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>11406.9815696409</v>
+        <v>114069815.696409</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>395.9453438693</v>
+        <v>3959453.438693</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>42.5621665296</v>
+        <v>425621.665296</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>802.7887053836</v>
+        <v>8027887.053836</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>780.98580817</v>
+        <v>7809858.0817</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>299.3006356825</v>
+        <v>2993006.356825</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>552.63606931</v>
+        <v>5526360.6931</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>4.2754610842</v>
+        <v>42754.610842</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1078,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>58.2559013292</v>
+        <v>582559.013292</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>198.3716217946</v>
+        <v>1983716.217946</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>147.1870164352</v>
+        <v>1471870.164352</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
